--- a/withoutOutofDomain_samePrompt_25_6/test_case/output_11_6/results_clari.xlsx
+++ b/withoutOutofDomain_samePrompt_25_6/test_case/output_11_6/results_clari.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\seniorProject\term2\output_11_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\update_project\withoutOutofDomain_samePrompt_25_6\test_case\output_11_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E83E3AB-B2E4-49F5-8A6A-96A9A7AB2CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8766F5A7-239D-4AA6-93EB-6E57713FFE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43140" yWindow="4725" windowWidth="14115" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="4605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
